--- a/Hoffman/unmod_data.xlsx
+++ b/Hoffman/unmod_data.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26101"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Macintosh HD/Users/zhangcheng/GitHub/tnf_ikbd_nfkb_model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geenaildefonso/Projects/NFkB/Hoffman/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20360" yWindow="460" windowWidth="24200" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="24200" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -506,10 +509,13 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
